--- a/6_Advanced_Data_Analytics/2_Data_Tables.xlsx
+++ b/6_Advanced_Data_Analytics/2_Data_Tables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cad0c85f7da77f86/Desktop/Projects/Excel_For_Data_Analytics/6_Advanced_Data_Analytics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Desktop\Projects\Excel_For_Data_Analytics_1\Excel_Project_Data_Analytics\6_Advanced_Data_Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{AF699739-AF38-4398-A5C0-59458B85094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{597EB2F8-E27C-4BFA-BD59-1861C9AF5420}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421B763D-9653-44AF-A250-47BC3D53D2A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
   </bookViews>
@@ -554,6 +554,19 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="7" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,19 +579,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -932,10 +932,10 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="42"/>
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
@@ -966,27 +966,27 @@
         <v>100000</v>
       </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="33">
+      <c r="F3" s="29">
         <f>$C9</f>
         <v>110000.00000000001</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="29">
         <f>$C10</f>
         <v>111650</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="29">
         <f>$C11</f>
         <v>113324.74999999997</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="29">
         <f>$C11</f>
         <v>113324.74999999997</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="29">
         <f>$C13</f>
         <v>116749.99056874996</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="29">
         <f>$C14</f>
         <v>566749.36181874992</v>
       </c>
@@ -1001,20 +1001,20 @@
       <c r="E4" s="16">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="30">
         <f t="dataTable" ref="F4:K12" dt2D="0" dtr="0" r1="C5"/>
         <v>110000.00000000001</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="31">
         <v>110550</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="31">
         <v>111102.74999999997</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="31">
         <v>111102.74999999997</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="32">
         <v>112216.55506874995</v>
       </c>
       <c r="K4" s="2">
@@ -1031,7 +1031,7 @@
       <c r="E5" s="17">
         <v>0.01</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="33">
         <v>110000.00000000001</v>
       </c>
       <c r="G5" s="1">
@@ -1054,7 +1054,7 @@
       <c r="E6" s="16">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="33">
         <v>110000.00000000001</v>
       </c>
       <c r="G6" s="1">
@@ -1074,14 +1074,14 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="42"/>
       <c r="E7" s="17">
         <v>0.02</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="33">
         <v>110000.00000000001</v>
       </c>
       <c r="G7" s="1">
@@ -1110,7 +1110,7 @@
       <c r="E8" s="16">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="33">
         <v>110000.00000000001</v>
       </c>
       <c r="G8" s="1">
@@ -1140,7 +1140,7 @@
       <c r="E9" s="17">
         <v>0.03</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="33">
         <v>110000.00000000001</v>
       </c>
       <c r="G9" s="1">
@@ -1170,7 +1170,7 @@
       <c r="E10" s="16">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="33">
         <v>110000.00000000001</v>
       </c>
       <c r="G10" s="1">
@@ -1200,7 +1200,7 @@
       <c r="E11" s="17">
         <v>0.04</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="33">
         <v>110000.00000000001</v>
       </c>
       <c r="G11" s="1">
@@ -1227,10 +1227,10 @@
         <f>(base*(1+raise)^B12)*(1+bonus)</f>
         <v>115024.62124999997</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="28">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="34">
         <v>110000.00000000001</v>
       </c>
       <c r="G12" s="3">
@@ -1301,7 +1301,7 @@
   <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1315,10 +1315,10 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="42"/>
       <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1348,26 +1348,26 @@
       <c r="C3" s="25">
         <v>100000</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="40">
         <f>C14</f>
         <v>566749.36181874992</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="38">
         <v>0</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="38">
         <v>0.05</v>
       </c>
-      <c r="H3" s="42">
+      <c r="H3" s="38">
         <v>0.1</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="38">
         <v>0.15</v>
       </c>
-      <c r="J3" s="42">
+      <c r="J3" s="38">
         <v>0.2</v>
       </c>
-      <c r="K3" s="43">
+      <c r="K3" s="39">
         <v>0.25</v>
       </c>
     </row>
@@ -1378,26 +1378,26 @@
       <c r="C4" s="26">
         <v>0.1</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="35">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="30">
         <f t="dataTable" ref="F4:K12" dt2D="1" dtr="1" r1="C4" r2="C5"/>
         <v>505025.06256249989</v>
       </c>
-      <c r="G4" s="35">
+      <c r="G4" s="31">
         <v>530276.31569062488</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="31">
         <v>555527.56881874998</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="31">
         <v>580778.82194687473</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="31">
         <v>606030.07507499983</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="32">
         <v>631281.32820312493</v>
       </c>
     </row>
@@ -1408,10 +1408,10 @@
       <c r="C5" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="36">
         <v>0.01</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="33">
         <v>510100.50099999999</v>
       </c>
       <c r="G5" s="1">
@@ -1431,10 +1431,10 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E6" s="39">
+      <c r="E6" s="35">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="33">
         <v>515226.6925624999</v>
       </c>
       <c r="G6" s="1">
@@ -1454,14 +1454,14 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="E7" s="40">
+      <c r="C7" s="42"/>
+      <c r="E7" s="36">
         <v>0.02</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="33">
         <v>520404.016</v>
       </c>
       <c r="G7" s="1">
@@ -1487,10 +1487,10 @@
       <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="35">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="33">
         <v>525632.8515625</v>
       </c>
       <c r="G8" s="1">
@@ -1517,10 +1517,10 @@
         <f>(base*(1+raise)^B9)*(1+bonus)</f>
         <v>110000.00000000001</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="36">
         <v>0.03</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="33">
         <v>530913.58100000001</v>
       </c>
       <c r="G9" s="1">
@@ -1547,10 +1547,10 @@
         <f>(base*(1+raise)^B10)*(1+bonus)</f>
         <v>111650</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="35">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="33">
         <v>536246.58756249992</v>
       </c>
       <c r="G10" s="1">
@@ -1577,10 +1577,10 @@
         <f>(base*(1+raise)^B11)*(1+bonus)</f>
         <v>113324.74999999997</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="36">
         <v>0.04</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="33">
         <v>541632.25600000005</v>
       </c>
       <c r="G11" s="1">
@@ -1607,10 +1607,10 @@
         <f>(base*(1+raise)^B12)*(1+bonus)</f>
         <v>115024.62124999997</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="37">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="34">
         <v>547070.97256249993</v>
       </c>
       <c r="G12" s="3">
@@ -1674,10 +1674,10 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="42"/>
       <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
@@ -1816,10 +1816,10 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="42"/>
       <c r="E7" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2065,19 +2065,19 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="42"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
@@ -2086,7 +2086,7 @@
       <c r="C3" s="25">
         <v>100000</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="43" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="11">
@@ -2119,7 +2119,7 @@
       <c r="C4" s="26">
         <v>0.1</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="16">
         <v>0</v>
       </c>
@@ -2150,7 +2150,7 @@
       <c r="C5" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="30"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="17">
         <v>0.01</v>
       </c>
@@ -2198,11 +2198,11 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="17">
         <v>0.02</v>
       </c>
@@ -2263,7 +2263,7 @@
         <f>(base*(1+raise)^B9)*(1+bonus)</f>
         <v>110000.00000000001</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -2294,7 +2294,7 @@
         <f>(base*(1+raise)^B10)*(1+bonus)</f>
         <v>111650</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="17">
         <v>0.03</v>
       </c>
@@ -2325,7 +2325,7 @@
         <f>(base*(1+raise)^B11)*(1+bonus)</f>
         <v>113324.74999999997</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -2356,7 +2356,7 @@
         <f>(base*(1+raise)^B12)*(1+bonus)</f>
         <v>115024.62124999997</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="43"/>
       <c r="E12" s="18">
         <v>0.04</v>
       </c>
